--- a/platform_outputs/output_S4.xlsx
+++ b/platform_outputs/output_S4.xlsx
@@ -438,7 +438,7 @@
         <v>W4/20</v>
       </c>
       <c r="G2" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H2" t="str">
         <v>PA</v>
@@ -461,7 +461,7 @@
         <v>CDC</v>
       </c>
       <c r="B3">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C3" t="str">
         <v>002</v>
@@ -476,7 +476,7 @@
         <v>W4/20</v>
       </c>
       <c r="G3" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H3" t="str">
         <v>PA</v>
@@ -499,7 +499,7 @@
         <v>CDC</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="C4" t="str">
         <v>003</v>
@@ -514,7 +514,7 @@
         <v>W4/20</v>
       </c>
       <c r="G4" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H4" t="str">
         <v>PA</v>
@@ -552,7 +552,7 @@
         <v>W4/20</v>
       </c>
       <c r="G5" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H5" t="str">
         <v>PA</v>
@@ -590,7 +590,7 @@
         <v>W5/20</v>
       </c>
       <c r="G6" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H6" t="str">
         <v>PA</v>
@@ -613,7 +613,7 @@
         <v>CDC</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="str">
         <v>002</v>
@@ -628,7 +628,7 @@
         <v>W5/20</v>
       </c>
       <c r="G7" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H7" t="str">
         <v>PA</v>
@@ -651,7 +651,7 @@
         <v>CDC</v>
       </c>
       <c r="B8">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C8" t="str">
         <v>003</v>
@@ -666,7 +666,7 @@
         <v>W5/20</v>
       </c>
       <c r="G8" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H8" t="str">
         <v>PA</v>
@@ -704,7 +704,7 @@
         <v>W5/20</v>
       </c>
       <c r="G9" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H9" t="str">
         <v>PA</v>
@@ -727,7 +727,7 @@
         <v>CDC</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C10" t="str">
         <v>001</v>
@@ -742,7 +742,7 @@
         <v>W6/20</v>
       </c>
       <c r="G10" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H10" t="str">
         <v>PA</v>
@@ -765,7 +765,7 @@
         <v>CDC</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C11" t="str">
         <v>002</v>
@@ -780,7 +780,7 @@
         <v>W6/20</v>
       </c>
       <c r="G11" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H11" t="str">
         <v>PA</v>
@@ -803,7 +803,7 @@
         <v>CDC</v>
       </c>
       <c r="B12">
-        <v>287</v>
+        <v>357</v>
       </c>
       <c r="C12" t="str">
         <v>003</v>
@@ -818,7 +818,7 @@
         <v>W6/20</v>
       </c>
       <c r="G12" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H12" t="str">
         <v>PA</v>
@@ -856,7 +856,7 @@
         <v>W6/20</v>
       </c>
       <c r="G13" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H13" t="str">
         <v>PA</v>
@@ -879,7 +879,7 @@
         <v>CDC</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" t="str">
         <v>001</v>
@@ -894,7 +894,7 @@
         <v>W7/20</v>
       </c>
       <c r="G14" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H14" t="str">
         <v>PA</v>
@@ -917,7 +917,7 @@
         <v>CDC</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="str">
         <v>002</v>
@@ -932,7 +932,7 @@
         <v>W7/20</v>
       </c>
       <c r="G15" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H15" t="str">
         <v>PA</v>
@@ -955,7 +955,7 @@
         <v>CDC</v>
       </c>
       <c r="B16">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C16" t="str">
         <v>003</v>
@@ -970,7 +970,7 @@
         <v>W7/20</v>
       </c>
       <c r="G16" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H16" t="str">
         <v>PA</v>
@@ -1008,7 +1008,7 @@
         <v>W7/20</v>
       </c>
       <c r="G17" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H17" t="str">
         <v>PA</v>
@@ -1031,7 +1031,7 @@
         <v>CDC</v>
       </c>
       <c r="B18">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="C18" t="str">
         <v>001</v>
@@ -1046,7 +1046,7 @@
         <v>W8/20</v>
       </c>
       <c r="G18" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H18" t="str">
         <v>PA</v>
@@ -1069,7 +1069,7 @@
         <v>CDC</v>
       </c>
       <c r="B19">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" t="str">
         <v>002</v>
@@ -1084,7 +1084,7 @@
         <v>W8/20</v>
       </c>
       <c r="G19" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H19" t="str">
         <v>PA</v>
@@ -1107,7 +1107,7 @@
         <v>CDC</v>
       </c>
       <c r="B20">
-        <v>358</v>
+        <v>39</v>
       </c>
       <c r="C20" t="str">
         <v>003</v>
@@ -1122,7 +1122,7 @@
         <v>W8/20</v>
       </c>
       <c r="G20" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H20" t="str">
         <v>PA</v>
@@ -1160,7 +1160,7 @@
         <v>W8/20</v>
       </c>
       <c r="G21" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H21" t="str">
         <v>PA</v>
@@ -1183,7 +1183,7 @@
         <v>CDC</v>
       </c>
       <c r="B22">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C22" t="str">
         <v>001</v>
@@ -1198,7 +1198,7 @@
         <v>W9/20</v>
       </c>
       <c r="G22" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H22" t="str">
         <v>PA</v>
@@ -1221,7 +1221,7 @@
         <v>CDC</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C23" t="str">
         <v>002</v>
@@ -1236,7 +1236,7 @@
         <v>W9/20</v>
       </c>
       <c r="G23" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H23" t="str">
         <v>PA</v>
@@ -1259,7 +1259,7 @@
         <v>CDC</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="C24" t="str">
         <v>003</v>
@@ -1274,7 +1274,7 @@
         <v>W9/20</v>
       </c>
       <c r="G24" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H24" t="str">
         <v>PA</v>
@@ -1312,7 +1312,7 @@
         <v>W9/20</v>
       </c>
       <c r="G25" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H25" t="str">
         <v>PA</v>
@@ -1335,7 +1335,7 @@
         <v>CDC</v>
       </c>
       <c r="B26">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="C26" t="str">
         <v>001</v>
@@ -1350,7 +1350,7 @@
         <v>W10/20</v>
       </c>
       <c r="G26" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H26" t="str">
         <v>PA</v>
@@ -1373,7 +1373,7 @@
         <v>CDC</v>
       </c>
       <c r="B27">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C27" t="str">
         <v>002</v>
@@ -1388,7 +1388,7 @@
         <v>W10/20</v>
       </c>
       <c r="G27" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H27" t="str">
         <v>PA</v>
@@ -1411,7 +1411,7 @@
         <v>CDC</v>
       </c>
       <c r="B28">
-        <v>98</v>
+        <v>290</v>
       </c>
       <c r="C28" t="str">
         <v>003</v>
@@ -1426,7 +1426,7 @@
         <v>W10/20</v>
       </c>
       <c r="G28" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H28" t="str">
         <v>PA</v>
@@ -1464,7 +1464,7 @@
         <v>W10/20</v>
       </c>
       <c r="G29" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H29" t="str">
         <v>PA</v>
@@ -1487,7 +1487,7 @@
         <v>CDC</v>
       </c>
       <c r="B30">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C30" t="str">
         <v>001</v>
@@ -1502,7 +1502,7 @@
         <v>W11/20</v>
       </c>
       <c r="G30" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H30" t="str">
         <v>PA</v>
@@ -1525,7 +1525,7 @@
         <v>CDC</v>
       </c>
       <c r="B31">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C31" t="str">
         <v>002</v>
@@ -1540,7 +1540,7 @@
         <v>W11/20</v>
       </c>
       <c r="G31" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H31" t="str">
         <v>PA</v>
@@ -1563,7 +1563,7 @@
         <v>CDC</v>
       </c>
       <c r="B32">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="C32" t="str">
         <v>003</v>
@@ -1578,7 +1578,7 @@
         <v>W11/20</v>
       </c>
       <c r="G32" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H32" t="str">
         <v>PA</v>
@@ -1616,7 +1616,7 @@
         <v>W11/20</v>
       </c>
       <c r="G33" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H33" t="str">
         <v>PA</v>
@@ -1639,7 +1639,7 @@
         <v>CDC</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="C34" t="str">
         <v>001</v>
@@ -1654,7 +1654,7 @@
         <v>W12/20</v>
       </c>
       <c r="G34" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H34" t="str">
         <v>PA</v>
@@ -1677,7 +1677,7 @@
         <v>CDC</v>
       </c>
       <c r="B35">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C35" t="str">
         <v>002</v>
@@ -1692,7 +1692,7 @@
         <v>W12/20</v>
       </c>
       <c r="G35" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H35" t="str">
         <v>PA</v>
@@ -1715,7 +1715,7 @@
         <v>CDC</v>
       </c>
       <c r="B36">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C36" t="str">
         <v>003</v>
@@ -1730,7 +1730,7 @@
         <v>W12/20</v>
       </c>
       <c r="G36" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H36" t="str">
         <v>PA</v>
@@ -1768,7 +1768,7 @@
         <v>W12/20</v>
       </c>
       <c r="G37" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H37" t="str">
         <v>PA</v>
@@ -1806,7 +1806,7 @@
         <v>W13/20</v>
       </c>
       <c r="G38" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H38" t="str">
         <v>PA</v>
@@ -1829,7 +1829,7 @@
         <v>CDC</v>
       </c>
       <c r="B39">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C39" t="str">
         <v>002</v>
@@ -1844,7 +1844,7 @@
         <v>W13/20</v>
       </c>
       <c r="G39" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H39" t="str">
         <v>PA</v>
@@ -1867,7 +1867,7 @@
         <v>CDC</v>
       </c>
       <c r="B40">
-        <v>232</v>
+        <v>152</v>
       </c>
       <c r="C40" t="str">
         <v>003</v>
@@ -1882,7 +1882,7 @@
         <v>W13/20</v>
       </c>
       <c r="G40" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H40" t="str">
         <v>PA</v>
@@ -1920,7 +1920,7 @@
         <v>W13/20</v>
       </c>
       <c r="G41" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H41" t="str">
         <v>PA</v>
@@ -1943,7 +1943,7 @@
         <v>CDC</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="C42" t="str">
         <v>001</v>
@@ -1958,7 +1958,7 @@
         <v>W14/20</v>
       </c>
       <c r="G42" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H42" t="str">
         <v>PA</v>
@@ -1981,7 +1981,7 @@
         <v>CDC</v>
       </c>
       <c r="B43">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C43" t="str">
         <v>002</v>
@@ -1996,7 +1996,7 @@
         <v>W14/20</v>
       </c>
       <c r="G43" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H43" t="str">
         <v>PA</v>
@@ -2019,7 +2019,7 @@
         <v>CDC</v>
       </c>
       <c r="B44">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="C44" t="str">
         <v>003</v>
@@ -2034,7 +2034,7 @@
         <v>W14/20</v>
       </c>
       <c r="G44" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H44" t="str">
         <v>PA</v>
@@ -2072,7 +2072,7 @@
         <v>W14/20</v>
       </c>
       <c r="G45" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H45" t="str">
         <v>PA</v>
@@ -2110,7 +2110,7 @@
         <v>W15/20</v>
       </c>
       <c r="G46" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H46" t="str">
         <v>PA</v>
@@ -2148,7 +2148,7 @@
         <v>W15/20</v>
       </c>
       <c r="G47" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H47" t="str">
         <v>PA</v>
@@ -2171,7 +2171,7 @@
         <v>CDC</v>
       </c>
       <c r="B48">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="C48" t="str">
         <v>003</v>
@@ -2186,7 +2186,7 @@
         <v>W15/20</v>
       </c>
       <c r="G48" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H48" t="str">
         <v>PA</v>
@@ -2224,7 +2224,7 @@
         <v>W15/20</v>
       </c>
       <c r="G49" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H49" t="str">
         <v>PA</v>
@@ -2247,7 +2247,7 @@
         <v>CDC</v>
       </c>
       <c r="B50">
-        <v>556</v>
+        <v>364</v>
       </c>
       <c r="C50" t="str">
         <v>001</v>
@@ -2262,7 +2262,7 @@
         <v>W16/20</v>
       </c>
       <c r="G50" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H50" t="str">
         <v>PA</v>
@@ -2285,7 +2285,7 @@
         <v>CDC</v>
       </c>
       <c r="B51">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C51" t="str">
         <v>002</v>
@@ -2300,7 +2300,7 @@
         <v>W16/20</v>
       </c>
       <c r="G51" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H51" t="str">
         <v>PA</v>
@@ -2323,7 +2323,7 @@
         <v>CDC</v>
       </c>
       <c r="B52">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C52" t="str">
         <v>003</v>
@@ -2338,7 +2338,7 @@
         <v>W16/20</v>
       </c>
       <c r="G52" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H52" t="str">
         <v>PA</v>
@@ -2376,7 +2376,7 @@
         <v>W16/20</v>
       </c>
       <c r="G53" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H53" t="str">
         <v>PA</v>
@@ -2399,7 +2399,7 @@
         <v>CDC</v>
       </c>
       <c r="B54">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C54" t="str">
         <v>001</v>
@@ -2414,7 +2414,7 @@
         <v>W17/20</v>
       </c>
       <c r="G54" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H54" t="str">
         <v>PA</v>
@@ -2437,7 +2437,7 @@
         <v>CDC</v>
       </c>
       <c r="B55">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C55" t="str">
         <v>002</v>
@@ -2452,7 +2452,7 @@
         <v>W17/20</v>
       </c>
       <c r="G55" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H55" t="str">
         <v>PA</v>
@@ -2475,7 +2475,7 @@
         <v>CDC</v>
       </c>
       <c r="B56">
-        <v>281</v>
+        <v>161</v>
       </c>
       <c r="C56" t="str">
         <v>003</v>
@@ -2490,7 +2490,7 @@
         <v>W17/20</v>
       </c>
       <c r="G56" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H56" t="str">
         <v>PA</v>
@@ -2528,7 +2528,7 @@
         <v>W17/20</v>
       </c>
       <c r="G57" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H57" t="str">
         <v>PA</v>
@@ -2551,7 +2551,7 @@
         <v>CDC</v>
       </c>
       <c r="B58">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="C58" t="str">
         <v>001</v>
@@ -2566,7 +2566,7 @@
         <v>W18/20</v>
       </c>
       <c r="G58" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H58" t="str">
         <v>PA</v>
@@ -2589,7 +2589,7 @@
         <v>CDC</v>
       </c>
       <c r="B59">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="C59" t="str">
         <v>002</v>
@@ -2604,7 +2604,7 @@
         <v>W18/20</v>
       </c>
       <c r="G59" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H59" t="str">
         <v>PA</v>
@@ -2627,7 +2627,7 @@
         <v>CDC</v>
       </c>
       <c r="B60">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C60" t="str">
         <v>003</v>
@@ -2642,7 +2642,7 @@
         <v>W18/20</v>
       </c>
       <c r="G60" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H60" t="str">
         <v>PA</v>
@@ -2680,7 +2680,7 @@
         <v>W18/20</v>
       </c>
       <c r="G61" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H61" t="str">
         <v>PA</v>
@@ -2703,7 +2703,7 @@
         <v>CDC</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C62" t="str">
         <v>001</v>
@@ -2718,7 +2718,7 @@
         <v>W19/20</v>
       </c>
       <c r="G62" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H62" t="str">
         <v>PA</v>
@@ -2756,7 +2756,7 @@
         <v>W19/20</v>
       </c>
       <c r="G63" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H63" t="str">
         <v>PA</v>
@@ -2779,7 +2779,7 @@
         <v>CDC</v>
       </c>
       <c r="B64">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="C64" t="str">
         <v>003</v>
@@ -2794,7 +2794,7 @@
         <v>W19/20</v>
       </c>
       <c r="G64" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H64" t="str">
         <v>PA</v>
@@ -2832,7 +2832,7 @@
         <v>W19/20</v>
       </c>
       <c r="G65" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H65" t="str">
         <v>PA</v>
@@ -2855,7 +2855,7 @@
         <v>CDC</v>
       </c>
       <c r="B66">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="C66" t="str">
         <v>001</v>
@@ -2870,7 +2870,7 @@
         <v>W20/20</v>
       </c>
       <c r="G66" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H66" t="str">
         <v>PA</v>
@@ -2893,7 +2893,7 @@
         <v>CDC</v>
       </c>
       <c r="B67">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="C67" t="str">
         <v>002</v>
@@ -2908,7 +2908,7 @@
         <v>W20/20</v>
       </c>
       <c r="G67" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H67" t="str">
         <v>PA</v>
@@ -2931,7 +2931,7 @@
         <v>CDC</v>
       </c>
       <c r="B68">
-        <v>465</v>
+        <v>414</v>
       </c>
       <c r="C68" t="str">
         <v>003</v>
@@ -2946,7 +2946,7 @@
         <v>W20/20</v>
       </c>
       <c r="G68" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H68" t="str">
         <v>PA</v>
@@ -2984,7 +2984,7 @@
         <v>W20/20</v>
       </c>
       <c r="G69" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H69" t="str">
         <v>PA</v>
@@ -3007,7 +3007,7 @@
         <v>CDC</v>
       </c>
       <c r="B70">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C70" t="str">
         <v>001</v>
@@ -3022,7 +3022,7 @@
         <v>W21/20</v>
       </c>
       <c r="G70" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H70" t="str">
         <v>PA</v>
@@ -3045,7 +3045,7 @@
         <v>CDC</v>
       </c>
       <c r="B71">
-        <v>251</v>
+        <v>499</v>
       </c>
       <c r="C71" t="str">
         <v>002</v>
@@ -3060,7 +3060,7 @@
         <v>W21/20</v>
       </c>
       <c r="G71" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H71" t="str">
         <v>PA</v>
@@ -3083,7 +3083,7 @@
         <v>CDC</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C72" t="str">
         <v>003</v>
@@ -3098,7 +3098,7 @@
         <v>W21/20</v>
       </c>
       <c r="G72" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H72" t="str">
         <v>PA</v>
@@ -3136,7 +3136,7 @@
         <v>W21/20</v>
       </c>
       <c r="G73" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H73" t="str">
         <v>PA</v>
@@ -3159,7 +3159,7 @@
         <v>CDC</v>
       </c>
       <c r="B74">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="C74" t="str">
         <v>001</v>
@@ -3174,7 +3174,7 @@
         <v>W22/20</v>
       </c>
       <c r="G74" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H74" t="str">
         <v>PA</v>
@@ -3197,7 +3197,7 @@
         <v>CDC</v>
       </c>
       <c r="B75">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="C75" t="str">
         <v>002</v>
@@ -3212,7 +3212,7 @@
         <v>W22/20</v>
       </c>
       <c r="G75" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H75" t="str">
         <v>PA</v>
@@ -3235,7 +3235,7 @@
         <v>CDC</v>
       </c>
       <c r="B76">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C76" t="str">
         <v>003</v>
@@ -3250,7 +3250,7 @@
         <v>W22/20</v>
       </c>
       <c r="G76" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H76" t="str">
         <v>PA</v>
@@ -3288,7 +3288,7 @@
         <v>W22/20</v>
       </c>
       <c r="G77" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H77" t="str">
         <v>PA</v>
@@ -3311,7 +3311,7 @@
         <v>CDC</v>
       </c>
       <c r="B78">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C78" t="str">
         <v>001</v>
@@ -3326,7 +3326,7 @@
         <v>W23/20</v>
       </c>
       <c r="G78" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H78" t="str">
         <v>PA</v>
@@ -3349,7 +3349,7 @@
         <v>CDC</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="C79" t="str">
         <v>002</v>
@@ -3364,7 +3364,7 @@
         <v>W23/20</v>
       </c>
       <c r="G79" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H79" t="str">
         <v>PA</v>
@@ -3402,7 +3402,7 @@
         <v>W23/20</v>
       </c>
       <c r="G80" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H80" t="str">
         <v>PA</v>
@@ -3440,7 +3440,7 @@
         <v>W23/20</v>
       </c>
       <c r="G81" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H81" t="str">
         <v>PA</v>
@@ -3463,7 +3463,7 @@
         <v>CDC</v>
       </c>
       <c r="B82">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C82" t="str">
         <v>001</v>
@@ -3478,7 +3478,7 @@
         <v>W24/20</v>
       </c>
       <c r="G82" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H82" t="str">
         <v>PA</v>
@@ -3516,7 +3516,7 @@
         <v>W24/20</v>
       </c>
       <c r="G83" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H83" t="str">
         <v>PA</v>
@@ -3539,7 +3539,7 @@
         <v>CDC</v>
       </c>
       <c r="B84">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C84" t="str">
         <v>003</v>
@@ -3554,7 +3554,7 @@
         <v>W24/20</v>
       </c>
       <c r="G84" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H84" t="str">
         <v>PA</v>
@@ -3577,7 +3577,7 @@
         <v>CDC</v>
       </c>
       <c r="B85">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C85" t="str">
         <v>004</v>
@@ -3592,7 +3592,7 @@
         <v>W24/20</v>
       </c>
       <c r="G85" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H85" t="str">
         <v>PA</v>
@@ -3615,7 +3615,7 @@
         <v>CDC</v>
       </c>
       <c r="B86">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C86" t="str">
         <v>001</v>
@@ -3630,7 +3630,7 @@
         <v>W25/20</v>
       </c>
       <c r="G86" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H86" t="str">
         <v>PA</v>
@@ -3653,7 +3653,7 @@
         <v>CDC</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="C87" t="str">
         <v>002</v>
@@ -3668,7 +3668,7 @@
         <v>W25/20</v>
       </c>
       <c r="G87" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H87" t="str">
         <v>PA</v>
@@ -3691,7 +3691,7 @@
         <v>CDC</v>
       </c>
       <c r="B88">
-        <v>265</v>
+        <v>576</v>
       </c>
       <c r="C88" t="str">
         <v>003</v>
@@ -3706,7 +3706,7 @@
         <v>W25/20</v>
       </c>
       <c r="G88" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H88" t="str">
         <v>PA</v>
@@ -3744,7 +3744,7 @@
         <v>W25/20</v>
       </c>
       <c r="G89" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H89" t="str">
         <v>PA</v>
@@ -3767,7 +3767,7 @@
         <v>CDC</v>
       </c>
       <c r="B90">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C90" t="str">
         <v>001</v>
@@ -3782,7 +3782,7 @@
         <v>W26/20</v>
       </c>
       <c r="G90" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H90" t="str">
         <v>PA</v>
@@ -3820,7 +3820,7 @@
         <v>W26/20</v>
       </c>
       <c r="G91" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H91" t="str">
         <v>PA</v>
@@ -3858,7 +3858,7 @@
         <v>W26/20</v>
       </c>
       <c r="G92" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H92" t="str">
         <v>PA</v>
@@ -3896,7 +3896,7 @@
         <v>W26/20</v>
       </c>
       <c r="G93" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H93" t="str">
         <v>PA</v>
@@ -3919,7 +3919,7 @@
         <v>CDC</v>
       </c>
       <c r="B94">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="C94" t="str">
         <v>001</v>
@@ -3934,7 +3934,7 @@
         <v>W27/20</v>
       </c>
       <c r="G94" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H94" t="str">
         <v>PA</v>
@@ -3972,7 +3972,7 @@
         <v>W27/20</v>
       </c>
       <c r="G95" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H95" t="str">
         <v>PA</v>
@@ -4010,7 +4010,7 @@
         <v>W27/20</v>
       </c>
       <c r="G96" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H96" t="str">
         <v>PA</v>
@@ -4048,7 +4048,7 @@
         <v>W27/20</v>
       </c>
       <c r="G97" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H97" t="str">
         <v>PA</v>
@@ -4086,7 +4086,7 @@
         <v>W4/20</v>
       </c>
       <c r="G98" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H98" t="str">
         <v>PA</v>
@@ -4124,7 +4124,7 @@
         <v>W4/20</v>
       </c>
       <c r="G99" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H99" t="str">
         <v>PA</v>
@@ -4162,7 +4162,7 @@
         <v>W4/20</v>
       </c>
       <c r="G100" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H100" t="str">
         <v>PA</v>
@@ -4185,7 +4185,7 @@
         <v>CDC</v>
       </c>
       <c r="B101">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C101" t="str">
         <v>001</v>
@@ -4200,7 +4200,7 @@
         <v>W5/20</v>
       </c>
       <c r="G101" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H101" t="str">
         <v>PA</v>
@@ -4223,7 +4223,7 @@
         <v>CDC</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C102" t="str">
         <v>002</v>
@@ -4238,7 +4238,7 @@
         <v>W5/20</v>
       </c>
       <c r="G102" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H102" t="str">
         <v>PA</v>
@@ -4276,7 +4276,7 @@
         <v>W5/20</v>
       </c>
       <c r="G103" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H103" t="str">
         <v>PA</v>
@@ -4314,7 +4314,7 @@
         <v>W6/20</v>
       </c>
       <c r="G104" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H104" t="str">
         <v>PA</v>
@@ -4337,7 +4337,7 @@
         <v>CDC</v>
       </c>
       <c r="B105">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C105" t="str">
         <v>002</v>
@@ -4352,7 +4352,7 @@
         <v>W6/20</v>
       </c>
       <c r="G105" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H105" t="str">
         <v>PA</v>
@@ -4390,7 +4390,7 @@
         <v>W6/20</v>
       </c>
       <c r="G106" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H106" t="str">
         <v>PA</v>
@@ -4413,7 +4413,7 @@
         <v>CDC</v>
       </c>
       <c r="B107">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C107" t="str">
         <v>001</v>
@@ -4428,7 +4428,7 @@
         <v>W7/20</v>
       </c>
       <c r="G107" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H107" t="str">
         <v>PA</v>
@@ -4451,7 +4451,7 @@
         <v>CDC</v>
       </c>
       <c r="B108">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C108" t="str">
         <v>002</v>
@@ -4466,7 +4466,7 @@
         <v>W7/20</v>
       </c>
       <c r="G108" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H108" t="str">
         <v>PA</v>
@@ -4504,7 +4504,7 @@
         <v>W7/20</v>
       </c>
       <c r="G109" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H109" t="str">
         <v>PA</v>
@@ -4527,7 +4527,7 @@
         <v>CDC</v>
       </c>
       <c r="B110">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="C110" t="str">
         <v>001</v>
@@ -4542,7 +4542,7 @@
         <v>W8/20</v>
       </c>
       <c r="G110" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H110" t="str">
         <v>PA</v>
@@ -4565,7 +4565,7 @@
         <v>CDC</v>
       </c>
       <c r="B111">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C111" t="str">
         <v>002</v>
@@ -4580,7 +4580,7 @@
         <v>W8/20</v>
       </c>
       <c r="G111" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H111" t="str">
         <v>PA</v>
@@ -4618,7 +4618,7 @@
         <v>W8/20</v>
       </c>
       <c r="G112" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H112" t="str">
         <v>PA</v>
@@ -4656,7 +4656,7 @@
         <v>W9/20</v>
       </c>
       <c r="G113" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H113" t="str">
         <v>PA</v>
@@ -4679,7 +4679,7 @@
         <v>CDC</v>
       </c>
       <c r="B114">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C114" t="str">
         <v>002</v>
@@ -4694,7 +4694,7 @@
         <v>W9/20</v>
       </c>
       <c r="G114" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H114" t="str">
         <v>PA</v>
@@ -4732,7 +4732,7 @@
         <v>W9/20</v>
       </c>
       <c r="G115" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H115" t="str">
         <v>PA</v>
@@ -4755,7 +4755,7 @@
         <v>CDC</v>
       </c>
       <c r="B116">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="C116" t="str">
         <v>001</v>
@@ -4770,7 +4770,7 @@
         <v>W10/20</v>
       </c>
       <c r="G116" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H116" t="str">
         <v>PA</v>
@@ -4793,7 +4793,7 @@
         <v>CDC</v>
       </c>
       <c r="B117">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C117" t="str">
         <v>002</v>
@@ -4808,7 +4808,7 @@
         <v>W10/20</v>
       </c>
       <c r="G117" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H117" t="str">
         <v>PA</v>
@@ -4846,7 +4846,7 @@
         <v>W10/20</v>
       </c>
       <c r="G118" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H118" t="str">
         <v>PA</v>
@@ -4869,7 +4869,7 @@
         <v>CDC</v>
       </c>
       <c r="B119">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="C119" t="str">
         <v>001</v>
@@ -4884,7 +4884,7 @@
         <v>W11/20</v>
       </c>
       <c r="G119" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H119" t="str">
         <v>PA</v>
@@ -4907,7 +4907,7 @@
         <v>CDC</v>
       </c>
       <c r="B120">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="C120" t="str">
         <v>002</v>
@@ -4922,7 +4922,7 @@
         <v>W11/20</v>
       </c>
       <c r="G120" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H120" t="str">
         <v>PA</v>
@@ -4960,7 +4960,7 @@
         <v>W11/20</v>
       </c>
       <c r="G121" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H121" t="str">
         <v>PA</v>
@@ -4983,7 +4983,7 @@
         <v>CDC</v>
       </c>
       <c r="B122">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="C122" t="str">
         <v>001</v>
@@ -4998,7 +4998,7 @@
         <v>W12/20</v>
       </c>
       <c r="G122" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H122" t="str">
         <v>PA</v>
@@ -5021,7 +5021,7 @@
         <v>CDC</v>
       </c>
       <c r="B123">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C123" t="str">
         <v>002</v>
@@ -5036,7 +5036,7 @@
         <v>W12/20</v>
       </c>
       <c r="G123" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H123" t="str">
         <v>PA</v>
@@ -5074,7 +5074,7 @@
         <v>W12/20</v>
       </c>
       <c r="G124" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H124" t="str">
         <v>PA</v>
@@ -5097,7 +5097,7 @@
         <v>CDC</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C125" t="str">
         <v>001</v>
@@ -5112,7 +5112,7 @@
         <v>W13/20</v>
       </c>
       <c r="G125" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H125" t="str">
         <v>PA</v>
@@ -5150,7 +5150,7 @@
         <v>W13/20</v>
       </c>
       <c r="G126" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H126" t="str">
         <v>PA</v>
@@ -5188,7 +5188,7 @@
         <v>W13/20</v>
       </c>
       <c r="G127" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H127" t="str">
         <v>PA</v>
@@ -5211,7 +5211,7 @@
         <v>CDC</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="C128" t="str">
         <v>001</v>
@@ -5226,7 +5226,7 @@
         <v>W14/20</v>
       </c>
       <c r="G128" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H128" t="str">
         <v>PA</v>
@@ -5249,7 +5249,7 @@
         <v>CDC</v>
       </c>
       <c r="B129">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C129" t="str">
         <v>002</v>
@@ -5264,7 +5264,7 @@
         <v>W14/20</v>
       </c>
       <c r="G129" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H129" t="str">
         <v>PA</v>
@@ -5302,7 +5302,7 @@
         <v>W14/20</v>
       </c>
       <c r="G130" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H130" t="str">
         <v>PA</v>
@@ -5325,7 +5325,7 @@
         <v>CDC</v>
       </c>
       <c r="B131">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="C131" t="str">
         <v>001</v>
@@ -5340,7 +5340,7 @@
         <v>W15/20</v>
       </c>
       <c r="G131" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H131" t="str">
         <v>PA</v>
@@ -5363,7 +5363,7 @@
         <v>CDC</v>
       </c>
       <c r="B132">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C132" t="str">
         <v>002</v>
@@ -5378,7 +5378,7 @@
         <v>W15/20</v>
       </c>
       <c r="G132" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H132" t="str">
         <v>PA</v>
@@ -5416,7 +5416,7 @@
         <v>W15/20</v>
       </c>
       <c r="G133" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H133" t="str">
         <v>PA</v>
@@ -5439,7 +5439,7 @@
         <v>CDC</v>
       </c>
       <c r="B134">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="C134" t="str">
         <v>001</v>
@@ -5454,7 +5454,7 @@
         <v>W16/20</v>
       </c>
       <c r="G134" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H134" t="str">
         <v>PA</v>
@@ -5477,7 +5477,7 @@
         <v>CDC</v>
       </c>
       <c r="B135">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="C135" t="str">
         <v>002</v>
@@ -5492,7 +5492,7 @@
         <v>W16/20</v>
       </c>
       <c r="G135" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H135" t="str">
         <v>PA</v>
@@ -5530,7 +5530,7 @@
         <v>W16/20</v>
       </c>
       <c r="G136" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H136" t="str">
         <v>PA</v>
@@ -5553,7 +5553,7 @@
         <v>CDC</v>
       </c>
       <c r="B137">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C137" t="str">
         <v>001</v>
@@ -5568,7 +5568,7 @@
         <v>W17/20</v>
       </c>
       <c r="G137" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H137" t="str">
         <v>PA</v>
@@ -5606,7 +5606,7 @@
         <v>W17/20</v>
       </c>
       <c r="G138" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H138" t="str">
         <v>PA</v>
@@ -5644,7 +5644,7 @@
         <v>W17/20</v>
       </c>
       <c r="G139" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H139" t="str">
         <v>PA</v>
@@ -5667,7 +5667,7 @@
         <v>CDC</v>
       </c>
       <c r="B140">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C140" t="str">
         <v>001</v>
@@ -5682,7 +5682,7 @@
         <v>W18/20</v>
       </c>
       <c r="G140" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H140" t="str">
         <v>PA</v>
@@ -5720,7 +5720,7 @@
         <v>W18/20</v>
       </c>
       <c r="G141" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H141" t="str">
         <v>PA</v>
@@ -5758,7 +5758,7 @@
         <v>W18/20</v>
       </c>
       <c r="G142" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H142" t="str">
         <v>PA</v>
@@ -5781,7 +5781,7 @@
         <v>CDC</v>
       </c>
       <c r="B143">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C143" t="str">
         <v>001</v>
@@ -5796,7 +5796,7 @@
         <v>W19/20</v>
       </c>
       <c r="G143" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H143" t="str">
         <v>PA</v>
@@ -5819,7 +5819,7 @@
         <v>CDC</v>
       </c>
       <c r="B144">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="C144" t="str">
         <v>002</v>
@@ -5834,7 +5834,7 @@
         <v>W19/20</v>
       </c>
       <c r="G144" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H144" t="str">
         <v>PA</v>
@@ -5872,7 +5872,7 @@
         <v>W19/20</v>
       </c>
       <c r="G145" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H145" t="str">
         <v>PA</v>
@@ -5895,7 +5895,7 @@
         <v>CDC</v>
       </c>
       <c r="B146">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C146" t="str">
         <v>001</v>
@@ -5910,7 +5910,7 @@
         <v>W20/20</v>
       </c>
       <c r="G146" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H146" t="str">
         <v>PA</v>
@@ -5933,7 +5933,7 @@
         <v>CDC</v>
       </c>
       <c r="B147">
-        <v>171</v>
+        <v>330</v>
       </c>
       <c r="C147" t="str">
         <v>002</v>
@@ -5948,7 +5948,7 @@
         <v>W20/20</v>
       </c>
       <c r="G147" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H147" t="str">
         <v>PA</v>
@@ -5986,7 +5986,7 @@
         <v>W20/20</v>
       </c>
       <c r="G148" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H148" t="str">
         <v>PA</v>
@@ -6009,7 +6009,7 @@
         <v>CDC</v>
       </c>
       <c r="B149">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C149" t="str">
         <v>001</v>
@@ -6024,7 +6024,7 @@
         <v>W21/20</v>
       </c>
       <c r="G149" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H149" t="str">
         <v>PA</v>
@@ -6062,7 +6062,7 @@
         <v>W21/20</v>
       </c>
       <c r="G150" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H150" t="str">
         <v>PA</v>
@@ -6100,7 +6100,7 @@
         <v>W21/20</v>
       </c>
       <c r="G151" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H151" t="str">
         <v>PA</v>
@@ -6123,7 +6123,7 @@
         <v>CDC</v>
       </c>
       <c r="B152">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C152" t="str">
         <v>001</v>
@@ -6138,7 +6138,7 @@
         <v>W22/20</v>
       </c>
       <c r="G152" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H152" t="str">
         <v>PA</v>
@@ -6161,7 +6161,7 @@
         <v>CDC</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C153" t="str">
         <v>002</v>
@@ -6176,7 +6176,7 @@
         <v>W22/20</v>
       </c>
       <c r="G153" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H153" t="str">
         <v>PA</v>
@@ -6214,7 +6214,7 @@
         <v>W22/20</v>
       </c>
       <c r="G154" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H154" t="str">
         <v>PA</v>
@@ -6237,7 +6237,7 @@
         <v>CDC</v>
       </c>
       <c r="B155">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C155" t="str">
         <v>001</v>
@@ -6252,7 +6252,7 @@
         <v>W23/20</v>
       </c>
       <c r="G155" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H155" t="str">
         <v>PA</v>
@@ -6290,7 +6290,7 @@
         <v>W23/20</v>
       </c>
       <c r="G156" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H156" t="str">
         <v>PA</v>
@@ -6328,7 +6328,7 @@
         <v>W23/20</v>
       </c>
       <c r="G157" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H157" t="str">
         <v>PA</v>
@@ -6351,7 +6351,7 @@
         <v>CDC</v>
       </c>
       <c r="B158">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C158" t="str">
         <v>001</v>
@@ -6366,7 +6366,7 @@
         <v>W24/20</v>
       </c>
       <c r="G158" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H158" t="str">
         <v>PA</v>
@@ -6404,7 +6404,7 @@
         <v>W24/20</v>
       </c>
       <c r="G159" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H159" t="str">
         <v>PA</v>
@@ -6427,7 +6427,7 @@
         <v>CDC</v>
       </c>
       <c r="B160">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="C160" t="str">
         <v>004</v>
@@ -6442,7 +6442,7 @@
         <v>W24/20</v>
       </c>
       <c r="G160" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H160" t="str">
         <v>PA</v>
@@ -6465,7 +6465,7 @@
         <v>CDC</v>
       </c>
       <c r="B161">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C161" t="str">
         <v>001</v>
@@ -6480,7 +6480,7 @@
         <v>W25/20</v>
       </c>
       <c r="G161" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H161" t="str">
         <v>PA</v>
@@ -6503,7 +6503,7 @@
         <v>CDC</v>
       </c>
       <c r="B162">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="C162" t="str">
         <v>002</v>
@@ -6518,7 +6518,7 @@
         <v>W25/20</v>
       </c>
       <c r="G162" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H162" t="str">
         <v>PA</v>
@@ -6556,7 +6556,7 @@
         <v>W25/20</v>
       </c>
       <c r="G163" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H163" t="str">
         <v>PA</v>
@@ -6579,7 +6579,7 @@
         <v>CDC</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C164" t="str">
         <v>001</v>
@@ -6594,7 +6594,7 @@
         <v>W26/20</v>
       </c>
       <c r="G164" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H164" t="str">
         <v>PA</v>
@@ -6617,7 +6617,7 @@
         <v>CDC</v>
       </c>
       <c r="B165">
-        <v>70</v>
+        <v>693</v>
       </c>
       <c r="C165" t="str">
         <v>002</v>
@@ -6632,7 +6632,7 @@
         <v>W26/20</v>
       </c>
       <c r="G165" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H165" t="str">
         <v>PA</v>
@@ -6670,7 +6670,7 @@
         <v>W26/20</v>
       </c>
       <c r="G166" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H166" t="str">
         <v>PA</v>
@@ -6693,7 +6693,7 @@
         <v>CDC</v>
       </c>
       <c r="B167">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="C167" t="str">
         <v>001</v>
@@ -6708,7 +6708,7 @@
         <v>W27/20</v>
       </c>
       <c r="G167" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H167" t="str">
         <v>PA</v>
@@ -6746,7 +6746,7 @@
         <v>W27/20</v>
       </c>
       <c r="G168" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H168" t="str">
         <v>PA</v>
@@ -6784,7 +6784,7 @@
         <v>W27/20</v>
       </c>
       <c r="G169" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H169" t="str">
         <v>PA</v>
@@ -6822,7 +6822,7 @@
         <v>W4/20</v>
       </c>
       <c r="G170" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H170" t="str">
         <v>PA</v>
@@ -6845,7 +6845,7 @@
         <v>CDC</v>
       </c>
       <c r="B171">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="C171" t="str">
         <v>003</v>
@@ -6860,7 +6860,7 @@
         <v>W4/20</v>
       </c>
       <c r="G171" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H171" t="str">
         <v>PA</v>
@@ -6898,7 +6898,7 @@
         <v>W5/20</v>
       </c>
       <c r="G172" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H172" t="str">
         <v>PA</v>
@@ -6921,7 +6921,7 @@
         <v>CDC</v>
       </c>
       <c r="B173">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C173" t="str">
         <v>003</v>
@@ -6936,7 +6936,7 @@
         <v>W5/20</v>
       </c>
       <c r="G173" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H173" t="str">
         <v>PA</v>
@@ -6959,7 +6959,7 @@
         <v>CDC</v>
       </c>
       <c r="B174">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C174" t="str">
         <v>001</v>
@@ -6974,7 +6974,7 @@
         <v>W6/20</v>
       </c>
       <c r="G174" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H174" t="str">
         <v>PA</v>
@@ -6997,7 +6997,7 @@
         <v>CDC</v>
       </c>
       <c r="B175">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="C175" t="str">
         <v>003</v>
@@ -7012,7 +7012,7 @@
         <v>W6/20</v>
       </c>
       <c r="G175" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H175" t="str">
         <v>PA</v>
@@ -7035,7 +7035,7 @@
         <v>CDC</v>
       </c>
       <c r="B176">
-        <v>145</v>
+        <v>242</v>
       </c>
       <c r="C176" t="str">
         <v>001</v>
@@ -7050,7 +7050,7 @@
         <v>W7/20</v>
       </c>
       <c r="G176" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H176" t="str">
         <v>PA</v>
@@ -7073,7 +7073,7 @@
         <v>CDC</v>
       </c>
       <c r="B177">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C177" t="str">
         <v>003</v>
@@ -7088,7 +7088,7 @@
         <v>W7/20</v>
       </c>
       <c r="G177" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H177" t="str">
         <v>PA</v>
@@ -7111,7 +7111,7 @@
         <v>CDC</v>
       </c>
       <c r="B178">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="C178" t="str">
         <v>001</v>
@@ -7126,7 +7126,7 @@
         <v>W8/20</v>
       </c>
       <c r="G178" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H178" t="str">
         <v>PA</v>
@@ -7149,7 +7149,7 @@
         <v>CDC</v>
       </c>
       <c r="B179">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="C179" t="str">
         <v>003</v>
@@ -7164,7 +7164,7 @@
         <v>W8/20</v>
       </c>
       <c r="G179" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H179" t="str">
         <v>PA</v>
@@ -7202,7 +7202,7 @@
         <v>W9/20</v>
       </c>
       <c r="G180" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H180" t="str">
         <v>PA</v>
@@ -7225,7 +7225,7 @@
         <v>CDC</v>
       </c>
       <c r="B181">
-        <v>185</v>
+        <v>363</v>
       </c>
       <c r="C181" t="str">
         <v>003</v>
@@ -7240,7 +7240,7 @@
         <v>W9/20</v>
       </c>
       <c r="G181" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H181" t="str">
         <v>PA</v>
@@ -7263,7 +7263,7 @@
         <v>CDC</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C182" t="str">
         <v>001</v>
@@ -7278,7 +7278,7 @@
         <v>W10/20</v>
       </c>
       <c r="G182" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H182" t="str">
         <v>PA</v>
@@ -7301,7 +7301,7 @@
         <v>CDC</v>
       </c>
       <c r="B183">
-        <v>634</v>
+        <v>467</v>
       </c>
       <c r="C183" t="str">
         <v>003</v>
@@ -7316,7 +7316,7 @@
         <v>W10/20</v>
       </c>
       <c r="G183" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H183" t="str">
         <v>PA</v>
@@ -7339,7 +7339,7 @@
         <v>CDC</v>
       </c>
       <c r="B184">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C184" t="str">
         <v>001</v>
@@ -7354,7 +7354,7 @@
         <v>W11/20</v>
       </c>
       <c r="G184" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H184" t="str">
         <v>PA</v>
@@ -7377,7 +7377,7 @@
         <v>CDC</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C185" t="str">
         <v>003</v>
@@ -7392,7 +7392,7 @@
         <v>W11/20</v>
       </c>
       <c r="G185" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H185" t="str">
         <v>PA</v>
@@ -7430,7 +7430,7 @@
         <v>W12/20</v>
       </c>
       <c r="G186" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H186" t="str">
         <v>PA</v>
@@ -7453,7 +7453,7 @@
         <v>CDC</v>
       </c>
       <c r="B187">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="C187" t="str">
         <v>003</v>
@@ -7468,7 +7468,7 @@
         <v>W12/20</v>
       </c>
       <c r="G187" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H187" t="str">
         <v>PA</v>
@@ -7506,7 +7506,7 @@
         <v>W13/20</v>
       </c>
       <c r="G188" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H188" t="str">
         <v>PA</v>
@@ -7544,7 +7544,7 @@
         <v>W13/20</v>
       </c>
       <c r="G189" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H189" t="str">
         <v>PA</v>
@@ -7582,7 +7582,7 @@
         <v>W14/20</v>
       </c>
       <c r="G190" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H190" t="str">
         <v>PA</v>
@@ -7620,7 +7620,7 @@
         <v>W14/20</v>
       </c>
       <c r="G191" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H191" t="str">
         <v>PA</v>
@@ -7643,7 +7643,7 @@
         <v>CDC</v>
       </c>
       <c r="B192">
-        <v>137</v>
+        <v>391</v>
       </c>
       <c r="C192" t="str">
         <v>001</v>
@@ -7658,7 +7658,7 @@
         <v>W15/20</v>
       </c>
       <c r="G192" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H192" t="str">
         <v>PA</v>
@@ -7696,7 +7696,7 @@
         <v>W15/20</v>
       </c>
       <c r="G193" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H193" t="str">
         <v>PA</v>
@@ -7719,7 +7719,7 @@
         <v>CDC</v>
       </c>
       <c r="B194">
-        <v>414</v>
+        <v>170</v>
       </c>
       <c r="C194" t="str">
         <v>001</v>
@@ -7734,7 +7734,7 @@
         <v>W16/20</v>
       </c>
       <c r="G194" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H194" t="str">
         <v>PA</v>
@@ -7772,7 +7772,7 @@
         <v>W16/20</v>
       </c>
       <c r="G195" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H195" t="str">
         <v>PA</v>
@@ -7795,7 +7795,7 @@
         <v>CDC</v>
       </c>
       <c r="B196">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C196" t="str">
         <v>001</v>
@@ -7810,7 +7810,7 @@
         <v>W17/20</v>
       </c>
       <c r="G196" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H196" t="str">
         <v>PA</v>
@@ -7833,7 +7833,7 @@
         <v>CDC</v>
       </c>
       <c r="B197">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C197" t="str">
         <v>003</v>
@@ -7848,7 +7848,7 @@
         <v>W17/20</v>
       </c>
       <c r="G197" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H197" t="str">
         <v>PA</v>
@@ -7871,7 +7871,7 @@
         <v>CDC</v>
       </c>
       <c r="B198">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C198" t="str">
         <v>001</v>
@@ -7886,7 +7886,7 @@
         <v>W18/20</v>
       </c>
       <c r="G198" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H198" t="str">
         <v>PA</v>
@@ -7909,7 +7909,7 @@
         <v>CDC</v>
       </c>
       <c r="B199">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="C199" t="str">
         <v>003</v>
@@ -7924,7 +7924,7 @@
         <v>W18/20</v>
       </c>
       <c r="G199" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H199" t="str">
         <v>PA</v>
@@ -7962,7 +7962,7 @@
         <v>W19/20</v>
       </c>
       <c r="G200" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H200" t="str">
         <v>PA</v>
@@ -7985,7 +7985,7 @@
         <v>CDC</v>
       </c>
       <c r="B201">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C201" t="str">
         <v>003</v>
@@ -8000,7 +8000,7 @@
         <v>W19/20</v>
       </c>
       <c r="G201" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H201" t="str">
         <v>PA</v>
@@ -8023,7 +8023,7 @@
         <v>CDC</v>
       </c>
       <c r="B202">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C202" t="str">
         <v>001</v>
@@ -8038,7 +8038,7 @@
         <v>W20/20</v>
       </c>
       <c r="G202" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H202" t="str">
         <v>PA</v>
@@ -8061,7 +8061,7 @@
         <v>CDC</v>
       </c>
       <c r="B203">
-        <v>362</v>
+        <v>241</v>
       </c>
       <c r="C203" t="str">
         <v>003</v>
@@ -8076,7 +8076,7 @@
         <v>W20/20</v>
       </c>
       <c r="G203" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H203" t="str">
         <v>PA</v>
@@ -8099,7 +8099,7 @@
         <v>CDC</v>
       </c>
       <c r="B204">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C204" t="str">
         <v>001</v>
@@ -8114,7 +8114,7 @@
         <v>W21/20</v>
       </c>
       <c r="G204" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H204" t="str">
         <v>PA</v>
@@ -8137,7 +8137,7 @@
         <v>CDC</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C205" t="str">
         <v>003</v>
@@ -8152,7 +8152,7 @@
         <v>W21/20</v>
       </c>
       <c r="G205" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H205" t="str">
         <v>PA</v>
@@ -8175,7 +8175,7 @@
         <v>CDC</v>
       </c>
       <c r="B206">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="C206" t="str">
         <v>001</v>
@@ -8190,7 +8190,7 @@
         <v>W22/20</v>
       </c>
       <c r="G206" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H206" t="str">
         <v>PA</v>
@@ -8213,7 +8213,7 @@
         <v>CDC</v>
       </c>
       <c r="B207">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C207" t="str">
         <v>003</v>
@@ -8228,7 +8228,7 @@
         <v>W22/20</v>
       </c>
       <c r="G207" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H207" t="str">
         <v>PA</v>
@@ -8251,7 +8251,7 @@
         <v>CDC</v>
       </c>
       <c r="B208">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="C208" t="str">
         <v>001</v>
@@ -8266,7 +8266,7 @@
         <v>W23/20</v>
       </c>
       <c r="G208" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H208" t="str">
         <v>PA</v>
@@ -8289,7 +8289,7 @@
         <v>CDC</v>
       </c>
       <c r="B209">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="C209" t="str">
         <v>003</v>
@@ -8304,7 +8304,7 @@
         <v>W23/20</v>
       </c>
       <c r="G209" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H209" t="str">
         <v>PA</v>
@@ -8327,7 +8327,7 @@
         <v>CDC</v>
       </c>
       <c r="B210">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C210" t="str">
         <v>001</v>
@@ -8342,7 +8342,7 @@
         <v>W24/20</v>
       </c>
       <c r="G210" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H210" t="str">
         <v>PA</v>
@@ -8365,7 +8365,7 @@
         <v>CDC</v>
       </c>
       <c r="B211">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C211" t="str">
         <v>003</v>
@@ -8380,7 +8380,7 @@
         <v>W24/20</v>
       </c>
       <c r="G211" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H211" t="str">
         <v>PA</v>
@@ -8403,7 +8403,7 @@
         <v>CDC</v>
       </c>
       <c r="B212">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C212" t="str">
         <v>001</v>
@@ -8418,7 +8418,7 @@
         <v>W25/20</v>
       </c>
       <c r="G212" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H212" t="str">
         <v>PA</v>
@@ -8441,7 +8441,7 @@
         <v>CDC</v>
       </c>
       <c r="B213">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C213" t="str">
         <v>003</v>
@@ -8456,7 +8456,7 @@
         <v>W25/20</v>
       </c>
       <c r="G213" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H213" t="str">
         <v>PA</v>
@@ -8479,7 +8479,7 @@
         <v>CDC</v>
       </c>
       <c r="B214">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="C214" t="str">
         <v>001</v>
@@ -8494,7 +8494,7 @@
         <v>W26/20</v>
       </c>
       <c r="G214" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H214" t="str">
         <v>PA</v>
@@ -8532,7 +8532,7 @@
         <v>W26/20</v>
       </c>
       <c r="G215" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H215" t="str">
         <v>PA</v>
@@ -8555,7 +8555,7 @@
         <v>CDC</v>
       </c>
       <c r="B216">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="C216" t="str">
         <v>001</v>
@@ -8570,7 +8570,7 @@
         <v>W27/20</v>
       </c>
       <c r="G216" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H216" t="str">
         <v>PA</v>
@@ -8608,7 +8608,7 @@
         <v>W27/20</v>
       </c>
       <c r="G217" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H217" t="str">
         <v>PA</v>
@@ -8646,7 +8646,7 @@
         <v>W4/20</v>
       </c>
       <c r="G218" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H218" t="str">
         <v>PA</v>
@@ -8669,7 +8669,7 @@
         <v>CDC</v>
       </c>
       <c r="B219">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C219" t="str">
         <v>001</v>
@@ -8684,7 +8684,7 @@
         <v>W5/20</v>
       </c>
       <c r="G219" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H219" t="str">
         <v>PA</v>
@@ -8707,7 +8707,7 @@
         <v>CDC</v>
       </c>
       <c r="B220">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C220" t="str">
         <v>001</v>
@@ -8722,7 +8722,7 @@
         <v>W6/20</v>
       </c>
       <c r="G220" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H220" t="str">
         <v>PA</v>
@@ -8745,7 +8745,7 @@
         <v>CDC</v>
       </c>
       <c r="B221">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="C221" t="str">
         <v>001</v>
@@ -8760,7 +8760,7 @@
         <v>W7/20</v>
       </c>
       <c r="G221" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H221" t="str">
         <v>PA</v>
@@ -8783,7 +8783,7 @@
         <v>CDC</v>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C222" t="str">
         <v>001</v>
@@ -8798,7 +8798,7 @@
         <v>W8/20</v>
       </c>
       <c r="G222" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H222" t="str">
         <v>PA</v>
@@ -8821,7 +8821,7 @@
         <v>CDC</v>
       </c>
       <c r="B223">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="C223" t="str">
         <v>001</v>
@@ -8836,7 +8836,7 @@
         <v>W9/20</v>
       </c>
       <c r="G223" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H223" t="str">
         <v>PA</v>
@@ -8859,7 +8859,7 @@
         <v>CDC</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="C224" t="str">
         <v>001</v>
@@ -8874,7 +8874,7 @@
         <v>W10/20</v>
       </c>
       <c r="G224" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H224" t="str">
         <v>PA</v>
@@ -8912,7 +8912,7 @@
         <v>W11/20</v>
       </c>
       <c r="G225" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H225" t="str">
         <v>PA</v>
@@ -8935,7 +8935,7 @@
         <v>CDC</v>
       </c>
       <c r="B226">
-        <v>43</v>
+        <v>416</v>
       </c>
       <c r="C226" t="str">
         <v>001</v>
@@ -8950,7 +8950,7 @@
         <v>W12/20</v>
       </c>
       <c r="G226" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H226" t="str">
         <v>PA</v>
@@ -8988,7 +8988,7 @@
         <v>W13/20</v>
       </c>
       <c r="G227" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H227" t="str">
         <v>PA</v>
@@ -9011,7 +9011,7 @@
         <v>CDC</v>
       </c>
       <c r="B228">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="C228" t="str">
         <v>001</v>
@@ -9026,7 +9026,7 @@
         <v>W14/20</v>
       </c>
       <c r="G228" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H228" t="str">
         <v>PA</v>
@@ -9049,7 +9049,7 @@
         <v>CDC</v>
       </c>
       <c r="B229">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C229" t="str">
         <v>001</v>
@@ -9064,7 +9064,7 @@
         <v>W15/20</v>
       </c>
       <c r="G229" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H229" t="str">
         <v>PA</v>
@@ -9087,7 +9087,7 @@
         <v>CDC</v>
       </c>
       <c r="B230">
-        <v>479</v>
+        <v>265</v>
       </c>
       <c r="C230" t="str">
         <v>001</v>
@@ -9102,7 +9102,7 @@
         <v>W16/20</v>
       </c>
       <c r="G230" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H230" t="str">
         <v>PA</v>
@@ -9125,7 +9125,7 @@
         <v>CDC</v>
       </c>
       <c r="B231">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C231" t="str">
         <v>001</v>
@@ -9140,7 +9140,7 @@
         <v>W17/20</v>
       </c>
       <c r="G231" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H231" t="str">
         <v>PA</v>
@@ -9163,7 +9163,7 @@
         <v>CDC</v>
       </c>
       <c r="B232">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C232" t="str">
         <v>001</v>
@@ -9178,7 +9178,7 @@
         <v>W18/20</v>
       </c>
       <c r="G232" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H232" t="str">
         <v>PA</v>
@@ -9201,7 +9201,7 @@
         <v>CDC</v>
       </c>
       <c r="B233">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="C233" t="str">
         <v>001</v>
@@ -9216,7 +9216,7 @@
         <v>W19/20</v>
       </c>
       <c r="G233" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H233" t="str">
         <v>PA</v>
@@ -9239,7 +9239,7 @@
         <v>CDC</v>
       </c>
       <c r="B234">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C234" t="str">
         <v>001</v>
@@ -9254,7 +9254,7 @@
         <v>W20/20</v>
       </c>
       <c r="G234" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H234" t="str">
         <v>PA</v>
@@ -9277,7 +9277,7 @@
         <v>CDC</v>
       </c>
       <c r="B235">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C235" t="str">
         <v>001</v>
@@ -9292,7 +9292,7 @@
         <v>W21/20</v>
       </c>
       <c r="G235" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H235" t="str">
         <v>PA</v>
@@ -9330,7 +9330,7 @@
         <v>W22/20</v>
       </c>
       <c r="G236" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H236" t="str">
         <v>PA</v>
@@ -9353,7 +9353,7 @@
         <v>CDC</v>
       </c>
       <c r="B237">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C237" t="str">
         <v>001</v>
@@ -9368,7 +9368,7 @@
         <v>W23/20</v>
       </c>
       <c r="G237" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H237" t="str">
         <v>PA</v>
@@ -9391,7 +9391,7 @@
         <v>CDC</v>
       </c>
       <c r="B238">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="C238" t="str">
         <v>001</v>
@@ -9406,7 +9406,7 @@
         <v>W24/20</v>
       </c>
       <c r="G238" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H238" t="str">
         <v>PA</v>
@@ -9429,7 +9429,7 @@
         <v>CDC</v>
       </c>
       <c r="B239">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C239" t="str">
         <v>001</v>
@@ -9444,7 +9444,7 @@
         <v>W25/20</v>
       </c>
       <c r="G239" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H239" t="str">
         <v>PA</v>
@@ -9467,7 +9467,7 @@
         <v>CDC</v>
       </c>
       <c r="B240">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="C240" t="str">
         <v>001</v>
@@ -9482,7 +9482,7 @@
         <v>W26/20</v>
       </c>
       <c r="G240" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H240" t="str">
         <v>PA</v>
@@ -9505,7 +9505,7 @@
         <v>CDC</v>
       </c>
       <c r="B241">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="C241" t="str">
         <v>001</v>
@@ -9520,7 +9520,7 @@
         <v>W27/20</v>
       </c>
       <c r="G241" t="str">
-        <v>deviationsFromoutput_S41</v>
+        <v>deviationsFromoutput_S4</v>
       </c>
       <c r="H241" t="str">
         <v>PA</v>
